--- a/Parameters_dirtygid.xlsx
+++ b/Parameters_dirtygid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://txst-my.sharepoint.com/personal/azh21_txstate_edu/Documents/REU MMA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{01EFA026-8296-411C-B0F5-210E38C678BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99D004FB-4DCF-429E-8EB3-8AAD9084B636}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{01EFA026-8296-411C-B0F5-210E38C678BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A2DF39-8BAC-423F-A228-ED3C63F41C30}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3730" windowWidth="16920" windowHeight="10450" xr2:uid="{778A6C16-8FD9-432F-B2D5-35B549D2CFEC}"/>
+    <workbookView xWindow="1520" yWindow="2870" windowWidth="16920" windowHeight="10450" xr2:uid="{778A6C16-8FD9-432F-B2D5-35B549D2CFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="20">
   <si>
     <t>grain_type</t>
   </si>
@@ -68,9 +68,6 @@
     <t>clumpy</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>homo</t>
   </si>
   <si>
@@ -86,10 +83,19 @@
     <t>smcbar</t>
   </si>
   <si>
-    <t>tau_V (B?)</t>
+    <t>stellar_mass</t>
   </si>
   <si>
-    <t>…</t>
+    <t>tau_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metallicity </t>
+  </si>
+  <si>
+    <t>age (Myr)</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779DF94C-D19F-4392-BE32-E697C8713CF4}">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,11 +498,12 @@
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -522,10 +529,13 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -550,11 +560,11 @@
       <c r="H2">
         <v>0.1</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -579,11 +589,11 @@
       <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -608,11 +618,11 @@
       <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -637,11 +647,11 @@
       <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -666,11 +676,11 @@
       <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -695,11 +705,11 @@
       <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -724,11 +734,11 @@
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -742,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>632456000000000</v>
@@ -753,11 +763,11 @@
       <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -771,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>632456000000000</v>
@@ -782,11 +792,11 @@
       <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -800,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>632456000000000</v>
@@ -811,11 +821,11 @@
       <c r="H11">
         <v>0.1</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -829,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>632456000000000</v>
@@ -840,11 +850,11 @@
       <c r="H12">
         <v>0.1</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -858,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>632456000000000</v>
@@ -869,11 +879,11 @@
       <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -887,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>632456000000000</v>
@@ -898,11 +908,11 @@
       <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -916,34 +926,34 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>632456000000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2">
-        <v>632456000000000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -956,8 +966,8 @@
       <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="I16" t="s">
-        <v>10</v>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -971,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -985,8 +995,8 @@
       <c r="H17">
         <v>0.1</v>
       </c>
-      <c r="I17" t="s">
-        <v>10</v>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1000,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1014,8 +1024,8 @@
       <c r="H18">
         <v>0.1</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1029,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1043,8 +1053,8 @@
       <c r="H19">
         <v>0.1</v>
       </c>
-      <c r="I19" t="s">
-        <v>10</v>
+      <c r="I19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1058,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1072,8 +1082,8 @@
       <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="I20" t="s">
-        <v>10</v>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1087,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -1101,8 +1111,8 @@
       <c r="H21">
         <v>0.1</v>
       </c>
-      <c r="I21" t="s">
-        <v>10</v>
+      <c r="I21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1116,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1130,8 +1140,8 @@
       <c r="H22">
         <v>0.1</v>
       </c>
-      <c r="I22" t="s">
-        <v>10</v>
+      <c r="I22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1145,10 +1155,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>632456000000000</v>
@@ -1159,8 +1169,8 @@
       <c r="H23">
         <v>0.1</v>
       </c>
-      <c r="I23" t="s">
-        <v>10</v>
+      <c r="I23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1174,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <v>632456000000000</v>
@@ -1188,8 +1198,8 @@
       <c r="H24">
         <v>0.1</v>
       </c>
-      <c r="I24" t="s">
-        <v>10</v>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1203,10 +1213,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <v>632456000000000</v>
@@ -1217,8 +1227,8 @@
       <c r="H25">
         <v>0.1</v>
       </c>
-      <c r="I25" t="s">
-        <v>10</v>
+      <c r="I25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1232,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
         <v>632456000000000</v>
@@ -1246,8 +1256,8 @@
       <c r="H26">
         <v>0.1</v>
       </c>
-      <c r="I26" t="s">
-        <v>10</v>
+      <c r="I26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1261,10 +1271,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
         <v>632456000000000</v>
@@ -1275,8 +1285,8 @@
       <c r="H27">
         <v>0.1</v>
       </c>
-      <c r="I27" t="s">
-        <v>10</v>
+      <c r="I27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1290,10 +1300,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2">
         <v>632456000000000</v>
@@ -1304,8 +1314,8 @@
       <c r="H28">
         <v>0.1</v>
       </c>
-      <c r="I28" t="s">
-        <v>10</v>
+      <c r="I28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1319,10 +1329,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
         <v>632456000000000</v>
@@ -1333,8 +1343,8 @@
       <c r="H29">
         <v>0.1</v>
       </c>
-      <c r="I29" t="s">
-        <v>10</v>
+      <c r="I29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1348,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1362,8 +1372,8 @@
       <c r="H30">
         <v>0.1</v>
       </c>
-      <c r="I30" t="s">
-        <v>10</v>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1377,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1391,8 +1401,8 @@
       <c r="H31">
         <v>0.1</v>
       </c>
-      <c r="I31" t="s">
-        <v>10</v>
+      <c r="I31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1406,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1420,8 +1430,8 @@
       <c r="H32">
         <v>0.1</v>
       </c>
-      <c r="I32" t="s">
-        <v>10</v>
+      <c r="I32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1435,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1449,8 +1459,8 @@
       <c r="H33">
         <v>0.1</v>
       </c>
-      <c r="I33" t="s">
-        <v>10</v>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1464,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1478,8 +1488,8 @@
       <c r="H34">
         <v>0.1</v>
       </c>
-      <c r="I34" t="s">
-        <v>10</v>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1493,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1507,8 +1517,8 @@
       <c r="H35">
         <v>0.1</v>
       </c>
-      <c r="I35" t="s">
-        <v>10</v>
+      <c r="I35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1522,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1536,8 +1546,8 @@
       <c r="H36">
         <v>0.1</v>
       </c>
-      <c r="I36" t="s">
-        <v>10</v>
+      <c r="I36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1551,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1565,8 +1575,8 @@
       <c r="H37">
         <v>0.1</v>
       </c>
-      <c r="I37" t="s">
-        <v>10</v>
+      <c r="I37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1580,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1594,8 +1604,8 @@
       <c r="H38">
         <v>0.1</v>
       </c>
-      <c r="I38" t="s">
-        <v>10</v>
+      <c r="I38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1609,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2">
         <v>632456000000000</v>
@@ -1623,8 +1633,8 @@
       <c r="H39">
         <v>0.1</v>
       </c>
-      <c r="I39" t="s">
-        <v>10</v>
+      <c r="I39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1638,10 +1648,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
         <v>632456000000000</v>
@@ -1652,8 +1662,8 @@
       <c r="H40">
         <v>0.1</v>
       </c>
-      <c r="I40" t="s">
-        <v>10</v>
+      <c r="I40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1667,10 +1677,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2">
         <v>632456000000000</v>
@@ -1681,8 +1691,8 @@
       <c r="H41">
         <v>0.1</v>
       </c>
-      <c r="I41" t="s">
-        <v>10</v>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1696,10 +1706,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <v>632456000000000</v>
@@ -1710,8 +1720,8 @@
       <c r="H42">
         <v>0.1</v>
       </c>
-      <c r="I42" t="s">
-        <v>10</v>
+      <c r="I42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1725,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2">
         <v>632456000000000</v>
@@ -1739,8 +1749,8 @@
       <c r="H43">
         <v>0.1</v>
       </c>
-      <c r="I43" t="s">
-        <v>10</v>
+      <c r="I43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1754,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2">
         <v>632456000000000</v>
@@ -1768,8 +1778,8 @@
       <c r="H44">
         <v>0.1</v>
       </c>
-      <c r="I44" t="s">
-        <v>10</v>
+      <c r="I44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1783,10 +1793,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2">
         <v>632456000000000</v>
@@ -1797,8 +1807,8 @@
       <c r="H45">
         <v>0.1</v>
       </c>
-      <c r="I45" t="s">
-        <v>10</v>
+      <c r="I45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1812,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
         <v>632456000000000</v>
@@ -1826,8 +1836,8 @@
       <c r="H46">
         <v>0.1</v>
       </c>
-      <c r="I46" t="s">
-        <v>10</v>
+      <c r="I46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1841,10 +1851,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2">
         <v>632456000000000</v>
@@ -1855,8 +1865,8 @@
       <c r="H47">
         <v>0.1</v>
       </c>
-      <c r="I47" t="s">
-        <v>10</v>
+      <c r="I47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1870,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="2">
         <v>632456000000000</v>
@@ -1884,8 +1894,8 @@
       <c r="H48">
         <v>0.1</v>
       </c>
-      <c r="I48" t="s">
-        <v>10</v>
+      <c r="I48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1899,10 +1909,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2">
         <v>632456000000000</v>
@@ -1913,8 +1923,8 @@
       <c r="H49">
         <v>0.1</v>
       </c>
-      <c r="I49" t="s">
-        <v>10</v>
+      <c r="I49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1928,10 +1938,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2">
         <v>632456000000000</v>
@@ -1942,13 +1952,13 @@
       <c r="H50">
         <v>0.1</v>
       </c>
-      <c r="I50" t="s">
-        <v>10</v>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1971,13 +1981,13 @@
       <c r="H51">
         <v>0.1</v>
       </c>
-      <c r="I51" t="s">
-        <v>10</v>
+      <c r="I51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -2000,13 +2010,13 @@
       <c r="H52">
         <v>0.1</v>
       </c>
-      <c r="I52" t="s">
-        <v>10</v>
+      <c r="I52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2029,13 +2039,13 @@
       <c r="H53">
         <v>0.1</v>
       </c>
-      <c r="I53" t="s">
-        <v>10</v>
+      <c r="I53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -2058,13 +2068,13 @@
       <c r="H54">
         <v>0.1</v>
       </c>
-      <c r="I54" t="s">
-        <v>10</v>
+      <c r="I54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2087,13 +2097,13 @@
       <c r="H55">
         <v>0.1</v>
       </c>
-      <c r="I55" t="s">
-        <v>10</v>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2116,13 +2126,13 @@
       <c r="H56">
         <v>0.1</v>
       </c>
-      <c r="I56" t="s">
-        <v>10</v>
+      <c r="I56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2145,13 +2155,13 @@
       <c r="H57">
         <v>0.1</v>
       </c>
-      <c r="I57" t="s">
-        <v>10</v>
+      <c r="I57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2163,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2">
         <v>632456000000000</v>
@@ -2174,13 +2184,13 @@
       <c r="H58">
         <v>0.1</v>
       </c>
-      <c r="I58" t="s">
-        <v>10</v>
+      <c r="I58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2192,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="2">
         <v>632456000000000</v>
@@ -2203,13 +2213,13 @@
       <c r="H59">
         <v>0.1</v>
       </c>
-      <c r="I59" t="s">
-        <v>10</v>
+      <c r="I59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2221,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="2">
         <v>632456000000000</v>
@@ -2232,13 +2242,13 @@
       <c r="H60">
         <v>0.1</v>
       </c>
-      <c r="I60" t="s">
-        <v>10</v>
+      <c r="I60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2250,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2">
         <v>632456000000000</v>
@@ -2261,13 +2271,13 @@
       <c r="H61">
         <v>0.1</v>
       </c>
-      <c r="I61" t="s">
-        <v>10</v>
+      <c r="I61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2279,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" s="2">
         <v>632456000000000</v>
@@ -2290,13 +2300,13 @@
       <c r="H62">
         <v>0.1</v>
       </c>
-      <c r="I62" t="s">
-        <v>10</v>
+      <c r="I62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2308,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2">
         <v>632456000000000</v>
@@ -2319,13 +2329,13 @@
       <c r="H63">
         <v>0.1</v>
       </c>
-      <c r="I63" t="s">
-        <v>10</v>
+      <c r="I63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2337,7 +2347,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2">
         <v>632456000000000</v>
@@ -2348,13 +2358,13 @@
       <c r="H64">
         <v>0.1</v>
       </c>
-      <c r="I64" t="s">
-        <v>10</v>
+      <c r="I64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2363,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -2377,13 +2387,13 @@
       <c r="H65">
         <v>0.1</v>
       </c>
-      <c r="I65" t="s">
-        <v>10</v>
+      <c r="I65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2392,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2406,13 +2416,13 @@
       <c r="H66">
         <v>0.1</v>
       </c>
-      <c r="I66" t="s">
-        <v>10</v>
+      <c r="I66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2421,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2435,13 +2445,13 @@
       <c r="H67">
         <v>0.1</v>
       </c>
-      <c r="I67" t="s">
-        <v>10</v>
+      <c r="I67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2450,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -2464,13 +2474,13 @@
       <c r="H68">
         <v>0.1</v>
       </c>
-      <c r="I68" t="s">
-        <v>10</v>
+      <c r="I68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2479,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -2493,13 +2503,13 @@
       <c r="H69">
         <v>0.1</v>
       </c>
-      <c r="I69" t="s">
-        <v>10</v>
+      <c r="I69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2508,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2522,13 +2532,13 @@
       <c r="H70">
         <v>0.1</v>
       </c>
-      <c r="I70" t="s">
-        <v>10</v>
+      <c r="I70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2537,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -2551,13 +2561,13 @@
       <c r="H71">
         <v>0.1</v>
       </c>
-      <c r="I71" t="s">
-        <v>10</v>
+      <c r="I71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2566,10 +2576,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2">
         <v>632456000000000</v>
@@ -2580,13 +2590,13 @@
       <c r="H72">
         <v>0.1</v>
       </c>
-      <c r="I72" t="s">
-        <v>10</v>
+      <c r="I72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2595,10 +2605,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2">
         <v>632456000000000</v>
@@ -2609,13 +2619,13 @@
       <c r="H73">
         <v>0.1</v>
       </c>
-      <c r="I73" t="s">
-        <v>10</v>
+      <c r="I73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2624,10 +2634,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2">
         <v>632456000000000</v>
@@ -2638,13 +2648,13 @@
       <c r="H74">
         <v>0.1</v>
       </c>
-      <c r="I74" t="s">
-        <v>10</v>
+      <c r="I74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2653,10 +2663,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2">
         <v>632456000000000</v>
@@ -2667,13 +2677,13 @@
       <c r="H75">
         <v>0.1</v>
       </c>
-      <c r="I75" t="s">
-        <v>10</v>
+      <c r="I75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2682,10 +2692,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2">
         <v>632456000000000</v>
@@ -2696,13 +2706,13 @@
       <c r="H76">
         <v>0.1</v>
       </c>
-      <c r="I76" t="s">
-        <v>10</v>
+      <c r="I76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2711,10 +2721,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
         <v>632456000000000</v>
@@ -2725,13 +2735,13 @@
       <c r="H77">
         <v>0.1</v>
       </c>
-      <c r="I77" t="s">
-        <v>10</v>
+      <c r="I77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2740,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
         <v>632456000000000</v>
@@ -2754,13 +2764,13 @@
       <c r="H78">
         <v>0.1</v>
       </c>
-      <c r="I78" t="s">
-        <v>10</v>
+      <c r="I78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2769,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2783,13 +2793,13 @@
       <c r="H79">
         <v>0.1</v>
       </c>
-      <c r="I79" t="s">
-        <v>10</v>
+      <c r="I79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2798,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2812,13 +2822,13 @@
       <c r="H80">
         <v>0.1</v>
       </c>
-      <c r="I80" t="s">
-        <v>10</v>
+      <c r="I80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2827,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2841,13 +2851,13 @@
       <c r="H81">
         <v>0.1</v>
       </c>
-      <c r="I81" t="s">
-        <v>10</v>
+      <c r="I81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2856,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2870,13 +2880,13 @@
       <c r="H82">
         <v>0.1</v>
       </c>
-      <c r="I82" t="s">
-        <v>10</v>
+      <c r="I82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2885,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2899,13 +2909,13 @@
       <c r="H83">
         <v>0.1</v>
       </c>
-      <c r="I83" t="s">
-        <v>10</v>
+      <c r="I83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2914,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2928,13 +2938,13 @@
       <c r="H84">
         <v>0.1</v>
       </c>
-      <c r="I84" t="s">
-        <v>10</v>
+      <c r="I84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2943,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -2957,13 +2967,13 @@
       <c r="H85">
         <v>0.1</v>
       </c>
-      <c r="I85" t="s">
-        <v>10</v>
+      <c r="I85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2972,10 +2982,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2">
         <v>632456000000000</v>
@@ -2986,13 +2996,13 @@
       <c r="H86">
         <v>0.1</v>
       </c>
-      <c r="I86" t="s">
-        <v>10</v>
+      <c r="I86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -3001,10 +3011,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2">
         <v>632456000000000</v>
@@ -3015,13 +3025,13 @@
       <c r="H87">
         <v>0.1</v>
       </c>
-      <c r="I87" t="s">
-        <v>10</v>
+      <c r="I87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -3030,10 +3040,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2">
         <v>632456000000000</v>
@@ -3044,13 +3054,13 @@
       <c r="H88">
         <v>0.1</v>
       </c>
-      <c r="I88" t="s">
-        <v>10</v>
+      <c r="I88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -3059,10 +3069,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2">
         <v>632456000000000</v>
@@ -3073,13 +3083,13 @@
       <c r="H89">
         <v>0.1</v>
       </c>
-      <c r="I89" t="s">
-        <v>10</v>
+      <c r="I89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -3088,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2">
         <v>632456000000000</v>
@@ -3102,13 +3112,13 @@
       <c r="H90">
         <v>0.1</v>
       </c>
-      <c r="I90" t="s">
-        <v>10</v>
+      <c r="I90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -3117,10 +3127,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2">
         <v>632456000000000</v>
@@ -3131,13 +3141,13 @@
       <c r="H91">
         <v>0.1</v>
       </c>
-      <c r="I91" t="s">
-        <v>10</v>
+      <c r="I91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3146,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2">
         <v>632456000000000</v>
@@ -3160,13 +3170,13 @@
       <c r="H92">
         <v>0.1</v>
       </c>
-      <c r="I92" t="s">
-        <v>10</v>
+      <c r="I92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3175,10 +3185,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2">
         <v>632456000000000</v>
@@ -3189,13 +3199,13 @@
       <c r="H93">
         <v>0.1</v>
       </c>
-      <c r="I93" t="s">
-        <v>10</v>
+      <c r="I93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3204,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2">
         <v>632456000000000</v>
@@ -3218,13 +3228,13 @@
       <c r="H94">
         <v>0.1</v>
       </c>
-      <c r="I94" t="s">
-        <v>10</v>
+      <c r="I94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3233,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2">
         <v>632456000000000</v>
@@ -3247,13 +3257,13 @@
       <c r="H95">
         <v>0.1</v>
       </c>
-      <c r="I95" t="s">
-        <v>10</v>
+      <c r="I95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3262,10 +3272,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2">
         <v>632456000000000</v>
@@ -3276,13 +3286,13 @@
       <c r="H96">
         <v>0.1</v>
       </c>
-      <c r="I96" t="s">
-        <v>10</v>
+      <c r="I96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3291,10 +3301,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2">
         <v>632456000000000</v>
@@ -3305,13 +3315,13 @@
       <c r="H97">
         <v>0.1</v>
       </c>
-      <c r="I97" t="s">
-        <v>10</v>
+      <c r="I97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3331,13 +3341,13 @@
       <c r="H98">
         <v>0.1</v>
       </c>
-      <c r="I98" t="s">
-        <v>10</v>
+      <c r="I98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -3357,13 +3367,13 @@
       <c r="H99">
         <v>0.1</v>
       </c>
-      <c r="I99" t="s">
-        <v>10</v>
+      <c r="I99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -3383,13 +3393,13 @@
       <c r="H100">
         <v>0.1</v>
       </c>
-      <c r="I100" t="s">
-        <v>10</v>
+      <c r="I100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -3409,13 +3419,13 @@
       <c r="H101">
         <v>0.1</v>
       </c>
-      <c r="I101" t="s">
-        <v>10</v>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -3435,13 +3445,13 @@
       <c r="H102">
         <v>0.1</v>
       </c>
-      <c r="I102" t="s">
-        <v>10</v>
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -3461,13 +3471,13 @@
       <c r="H103">
         <v>0.1</v>
       </c>
-      <c r="I103" t="s">
-        <v>10</v>
+      <c r="I103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -3487,13 +3497,13 @@
       <c r="H104">
         <v>0.1</v>
       </c>
-      <c r="I104" t="s">
-        <v>10</v>
+      <c r="I104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -3502,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2">
         <v>632456000000000</v>
@@ -3513,13 +3523,13 @@
       <c r="H105">
         <v>0.1</v>
       </c>
-      <c r="I105" t="s">
-        <v>10</v>
+      <c r="I105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -3528,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2">
         <v>632456000000000</v>
@@ -3539,13 +3549,13 @@
       <c r="H106">
         <v>0.1</v>
       </c>
-      <c r="I106" t="s">
-        <v>10</v>
+      <c r="I106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -3554,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2">
         <v>632456000000000</v>
@@ -3565,13 +3575,13 @@
       <c r="H107">
         <v>0.1</v>
       </c>
-      <c r="I107" t="s">
-        <v>10</v>
+      <c r="I107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -3580,7 +3590,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" s="2">
         <v>632456000000000</v>
@@ -3591,13 +3601,13 @@
       <c r="H108">
         <v>0.1</v>
       </c>
-      <c r="I108" t="s">
-        <v>10</v>
+      <c r="I108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3606,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2">
         <v>632456000000000</v>
@@ -3617,13 +3627,13 @@
       <c r="H109">
         <v>0.1</v>
       </c>
-      <c r="I109" t="s">
-        <v>10</v>
+      <c r="I109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3632,7 +3642,7 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2">
         <v>632456000000000</v>
@@ -3643,13 +3653,13 @@
       <c r="H110">
         <v>0.1</v>
       </c>
-      <c r="I110" t="s">
-        <v>10</v>
+      <c r="I110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3658,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2">
         <v>632456000000000</v>
@@ -3669,19 +3679,19 @@
       <c r="H111">
         <v>0.1</v>
       </c>
-      <c r="I111" t="s">
-        <v>10</v>
+      <c r="I111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -3695,19 +3705,19 @@
       <c r="H112">
         <v>0.1</v>
       </c>
-      <c r="I112" t="s">
-        <v>10</v>
+      <c r="I112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -3721,19 +3731,19 @@
       <c r="H113">
         <v>0.1</v>
       </c>
-      <c r="I113" t="s">
-        <v>10</v>
+      <c r="I113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -3747,19 +3757,19 @@
       <c r="H114">
         <v>0.1</v>
       </c>
-      <c r="I114" t="s">
-        <v>10</v>
+      <c r="I114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3773,19 +3783,19 @@
       <c r="H115">
         <v>0.1</v>
       </c>
-      <c r="I115" t="s">
-        <v>10</v>
+      <c r="I115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3799,19 +3809,19 @@
       <c r="H116">
         <v>0.1</v>
       </c>
-      <c r="I116" t="s">
-        <v>10</v>
+      <c r="I116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3825,19 +3835,19 @@
       <c r="H117">
         <v>0.1</v>
       </c>
-      <c r="I117" t="s">
-        <v>10</v>
+      <c r="I117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -3851,22 +3861,22 @@
       <c r="H118">
         <v>0.1</v>
       </c>
-      <c r="I118" t="s">
-        <v>10</v>
+      <c r="I118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2">
         <v>632456000000000</v>
@@ -3877,22 +3887,22 @@
       <c r="H119">
         <v>0.1</v>
       </c>
-      <c r="I119" t="s">
-        <v>10</v>
+      <c r="I119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" s="2">
         <v>632456000000000</v>
@@ -3903,22 +3913,22 @@
       <c r="H120">
         <v>0.1</v>
       </c>
-      <c r="I120" t="s">
-        <v>10</v>
+      <c r="I120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" s="2">
         <v>632456000000000</v>
@@ -3929,22 +3939,22 @@
       <c r="H121">
         <v>0.1</v>
       </c>
-      <c r="I121" t="s">
-        <v>10</v>
+      <c r="I121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2">
         <v>632456000000000</v>
@@ -3955,22 +3965,22 @@
       <c r="H122">
         <v>0.1</v>
       </c>
-      <c r="I122" t="s">
-        <v>10</v>
+      <c r="I122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2">
         <v>632456000000000</v>
@@ -3981,22 +3991,22 @@
       <c r="H123">
         <v>0.1</v>
       </c>
-      <c r="I123" t="s">
-        <v>10</v>
+      <c r="I123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2">
         <v>632456000000000</v>
@@ -4007,22 +4017,22 @@
       <c r="H124">
         <v>0.1</v>
       </c>
-      <c r="I124" t="s">
-        <v>10</v>
+      <c r="I124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2">
         <v>632456000000000</v>
@@ -4033,19 +4043,19 @@
       <c r="H125">
         <v>0.1</v>
       </c>
-      <c r="I125" t="s">
-        <v>10</v>
+      <c r="I125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -4059,19 +4069,19 @@
       <c r="H126">
         <v>0.1</v>
       </c>
-      <c r="I126" t="s">
-        <v>10</v>
+      <c r="I126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -4085,19 +4095,19 @@
       <c r="H127">
         <v>0.1</v>
       </c>
-      <c r="I127" t="s">
-        <v>10</v>
+      <c r="I127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -4111,19 +4121,19 @@
       <c r="H128">
         <v>0.1</v>
       </c>
-      <c r="I128" t="s">
-        <v>10</v>
+      <c r="I128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -4137,19 +4147,19 @@
       <c r="H129">
         <v>0.1</v>
       </c>
-      <c r="I129" t="s">
-        <v>10</v>
+      <c r="I129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -4163,19 +4173,19 @@
       <c r="H130">
         <v>0.1</v>
       </c>
-      <c r="I130" t="s">
-        <v>10</v>
+      <c r="I130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
@@ -4189,19 +4199,19 @@
       <c r="H131">
         <v>0.1</v>
       </c>
-      <c r="I131" t="s">
-        <v>10</v>
+      <c r="I131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
@@ -4215,19 +4225,19 @@
       <c r="H132">
         <v>0.1</v>
       </c>
-      <c r="I132" t="s">
-        <v>10</v>
+      <c r="I132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
@@ -4241,19 +4251,19 @@
       <c r="H133">
         <v>0.1</v>
       </c>
-      <c r="I133" t="s">
-        <v>10</v>
+      <c r="I133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -4267,22 +4277,22 @@
       <c r="H134">
         <v>0.1</v>
       </c>
-      <c r="I134" t="s">
-        <v>10</v>
+      <c r="I134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135" s="2">
         <v>632456000000000</v>
@@ -4293,22 +4303,22 @@
       <c r="H135">
         <v>0.1</v>
       </c>
-      <c r="I135" t="s">
-        <v>10</v>
+      <c r="I135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F136" s="2">
         <v>632456000000000</v>
@@ -4319,22 +4329,22 @@
       <c r="H136">
         <v>0.1</v>
       </c>
-      <c r="I136" t="s">
-        <v>10</v>
+      <c r="I136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2">
         <v>632456000000000</v>
@@ -4345,22 +4355,22 @@
       <c r="H137">
         <v>0.1</v>
       </c>
-      <c r="I137" t="s">
-        <v>10</v>
+      <c r="I137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138" s="2">
         <v>632456000000000</v>
@@ -4371,22 +4381,22 @@
       <c r="H138">
         <v>0.1</v>
       </c>
-      <c r="I138" t="s">
-        <v>10</v>
+      <c r="I138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F139" s="2">
         <v>632456000000000</v>
@@ -4397,22 +4407,22 @@
       <c r="H139">
         <v>0.1</v>
       </c>
-      <c r="I139" t="s">
-        <v>10</v>
+      <c r="I139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2">
         <v>632456000000000</v>
@@ -4423,22 +4433,22 @@
       <c r="H140">
         <v>0.1</v>
       </c>
-      <c r="I140" t="s">
-        <v>10</v>
+      <c r="I140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F141" s="2">
         <v>632456000000000</v>
@@ -4449,22 +4459,22 @@
       <c r="H141">
         <v>0.1</v>
       </c>
-      <c r="I141" t="s">
-        <v>10</v>
+      <c r="I141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2">
         <v>632456000000000</v>
@@ -4475,22 +4485,22 @@
       <c r="H142">
         <v>0.1</v>
       </c>
-      <c r="I142" t="s">
-        <v>10</v>
+      <c r="I142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" s="2">
         <v>632456000000000</v>
@@ -4501,22 +4511,22 @@
       <c r="H143">
         <v>0.1</v>
       </c>
-      <c r="I143" t="s">
-        <v>10</v>
+      <c r="I143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2">
         <v>632456000000000</v>
@@ -4527,22 +4537,22 @@
       <c r="H144">
         <v>0.1</v>
       </c>
-      <c r="I144" t="s">
-        <v>10</v>
+      <c r="I144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2">
         <v>632456000000000</v>
@@ -4553,22 +4563,22 @@
       <c r="H145">
         <v>0.1</v>
       </c>
-      <c r="I145" t="s">
-        <v>10</v>
+      <c r="I145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F146" s="2">
         <v>632456000000000</v>
@@ -4579,8 +4589,8 @@
       <c r="H146">
         <v>0.1</v>
       </c>
-      <c r="I146" t="s">
-        <v>10</v>
+      <c r="I146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
